--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1059.230694972084</v>
+        <v>458.9725952971945</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.13281436432208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.050914039202684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>864.4600000000089</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.88</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,118 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1210,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1221,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1243,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1254,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1265,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>236.55</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>236.0700000000014</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>245.2900000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>240.85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -1309,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>223.4700000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1320,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.0400000000008</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1331,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>150.6550000000008</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1353,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>147.3750000000008</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1364,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>138.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -1375,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.3699999999998</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -1386,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.1349999999998</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -1397,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.8349999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
@@ -1408,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.8949999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
@@ -1419,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.9649999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -1430,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1441,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1452,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1463,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1474,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1485,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>122.3699999999998</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1496,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>134.1349999999998</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -1507,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>125.8349999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1518,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>135.8949999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1529,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>135.9649999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -1540,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>236.55</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
@@ -1551,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>236.0700000000014</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
@@ -1562,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>245.2900000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
@@ -1573,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>240.85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1584,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>223.4700000000015</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>86.55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1697,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>86.07000000000144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1708,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>95.29000000000147</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1719,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>90.84999999999999</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1730,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>73.47000000000148</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1788,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1799,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1810,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1821,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1887,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1898,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1909,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1920,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1931,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1997,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2008,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2019,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2041,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,39 +1968,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
